--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_40.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_40.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Satomi Tanaka</t>
+          <t>Kenichi Inoue</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Satomi Tanaka</t>
+          <t>Kenichi Inoue</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Satomi Tanaka</t>
+          <t>Kenichi Inoue</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Satomi Tanaka</t>
+          <t>Kenichi Inoue</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Satomi Tanaka</t>
+          <t>Kenichi Inoue</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Satomi Tanaka</t>
+          <t>Kenichi Inoue</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Satomi Tanaka</t>
+          <t>Kenichi Inoue</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Satomi Tanaka</t>
+          <t>Kenichi Inoue</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Satomi Tanaka</t>
+          <t>Kenichi Inoue</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Satomi Tanaka</t>
+          <t>Kenichi Inoue</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Satomi Tanaka</t>
+          <t>Kenichi Inoue</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Satomi Tanaka</t>
+          <t>Kenichi Inoue</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Satomi Tanaka</t>
+          <t>Kenichi Inoue</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Satomi Tanaka</t>
+          <t>Kenichi Inoue</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Satomi Tanaka</t>
+          <t>Kenichi Inoue</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
